--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCF010C-A96D-45FC-801D-7B6C8ED3CB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC1F195-DB2D-4FA0-B829-4EF7DBA3967E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="142">
   <si>
     <t>setting_name</t>
   </si>
@@ -149,9 +149,6 @@
     <t>display.adate.helperText</t>
   </si>
   <si>
-    <t>instance_name</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>display.constraint_message.text</t>
   </si>
   <si>
-    <t>NOMECRI</t>
-  </si>
-  <si>
     <t>MASKCOVID - Inclusion</t>
   </si>
   <si>
@@ -177,6 +171,294 @@
   </si>
   <si>
     <t>MASKINCL</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>regida</t>
+  </si>
+  <si>
+    <t>xdia</t>
+  </si>
+  <si>
+    <t>grupo de estudio</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>VitalStatus</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>data("ESTADO") == "2" || data("ESTADO") == "3" || data("ESTADO") == "5"</t>
+  </si>
+  <si>
+    <t>data("ESTADO") == "2" || data("ESTADO") == "5"</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>DATASAI</t>
+  </si>
+  <si>
+    <t>ONDE</t>
+  </si>
+  <si>
+    <t>When?</t>
+  </si>
+  <si>
+    <t>Where?</t>
+  </si>
+  <si>
+    <t>Quando?</t>
+  </si>
+  <si>
+    <t>Onde?</t>
+  </si>
+  <si>
+    <t>Vital status</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>YesNoDontknow</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>TELE1</t>
+  </si>
+  <si>
+    <t>Other person in the household</t>
+  </si>
+  <si>
+    <t>TELE2</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>MASC</t>
+  </si>
+  <si>
+    <t>Provided with a mask?</t>
+  </si>
+  <si>
+    <t>Recebeu duas mascaras facial de pano certificado?</t>
+  </si>
+  <si>
+    <t>Quem?</t>
+  </si>
+  <si>
+    <t>Who?</t>
+  </si>
+  <si>
+    <t>Absent, left with other household member</t>
+  </si>
+  <si>
+    <t>Ausente, foi deixada com outro/a</t>
+  </si>
+  <si>
+    <t>data("ACCEPT") == "2"</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>data("GRUPO2") == "2"</t>
+  </si>
+  <si>
+    <t>Intension</t>
+  </si>
+  <si>
+    <t>RECEB_QUEM</t>
+  </si>
+  <si>
+    <t>INTENCAO</t>
+  </si>
+  <si>
+    <t>Tem Intenção de usar a máscara fornecida?</t>
+  </si>
+  <si>
+    <t>Does the person intend to use the provided mask?</t>
+  </si>
+  <si>
+    <t>Do not know yet</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Ainda não sabe</t>
+  </si>
+  <si>
+    <t>Não aplicavel</t>
+  </si>
+  <si>
+    <t>data("INTENCAO") == "1"</t>
+  </si>
+  <si>
+    <t>QUANDO</t>
+  </si>
+  <si>
+    <t>data("INTENCAO") == "2" || data("INTENCAO") == "3"</t>
+  </si>
+  <si>
+    <t>MOTIVO</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>Motivo?</t>
+  </si>
+  <si>
+    <t>MaskWhen</t>
+  </si>
+  <si>
+    <t>NoMask</t>
+  </si>
+  <si>
+    <t>When leaving the house</t>
+  </si>
+  <si>
+    <t>Often</t>
+  </si>
+  <si>
+    <t>Quando sai</t>
+  </si>
+  <si>
+    <t>Sempre</t>
+  </si>
+  <si>
+    <t>Note able to wear a mask</t>
+  </si>
+  <si>
+    <t>Other reason</t>
+  </si>
+  <si>
+    <t>Can't explain why</t>
+  </si>
+  <si>
+    <t>Não consegue usar máscara</t>
+  </si>
+  <si>
+    <t>Prefer surgery mask or other mask</t>
+  </si>
+  <si>
+    <t>Prefere usar a máscara cirurgica ou outra</t>
+  </si>
+  <si>
+    <t>Não sabe explicar</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Moved</t>
+  </si>
+  <si>
+    <t>Travelling</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>Duplo</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Ausente</t>
+  </si>
+  <si>
+    <t>Não encontrado</t>
+  </si>
+  <si>
+    <t>Mudou</t>
+  </si>
+  <si>
+    <t>Viagem</t>
+  </si>
+  <si>
+    <t>Faleceu</t>
+  </si>
+  <si>
+    <t>Do not have a phone number</t>
+  </si>
+  <si>
+    <t>Outra pessoa na casa</t>
+  </si>
+  <si>
+    <t>Não tem um número de telefone</t>
+  </si>
+  <si>
+    <t>Aceitou</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>data("MASC") == "2"</t>
   </si>
 </sst>
 </file>
@@ -186,7 +468,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +522,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +562,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -292,9 +581,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -578,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -636,7 +926,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -645,10 +935,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,14 +969,6 @@
       </c>
       <c r="B8" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -700,17 +982,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -752,13 +1035,13 @@
         <v>22</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>37</v>
@@ -766,12 +1049,441 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>40</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -781,18 +1493,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -810,186 +1522,501 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
     </row>
     <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
     <row r="14" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="A15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="A16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="17" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="12">
+        <v>7</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="7">
+        <v>8</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="13">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="13">
+        <v>8</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="13">
+        <v>3</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="13">
+        <v>4</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="13">
+        <v>8</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -1010,20 +2037,19 @@
       <c r="D51" s="13"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
@@ -1031,7 +2057,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
@@ -1039,10 +2065,10 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
@@ -1057,11 +2083,11 @@
       <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -1134,19 +2160,18 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="C83" s="15"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
-      <c r="C84" s="16"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
@@ -1201,9 +2226,6 @@
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC1F195-DB2D-4FA0-B829-4EF7DBA3967E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A94C7-39D6-4ADB-A0A1-02C12FE321F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,10 @@
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="12" r:id="rId2"/>
     <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="calculates" sheetId="7" r:id="rId4"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
-    <sheet name="model" sheetId="4" r:id="rId6"/>
+    <sheet name="queries" sheetId="13" r:id="rId4"/>
+    <sheet name="calculates" sheetId="7" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
+    <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="176">
   <si>
     <t>setting_name</t>
   </si>
@@ -459,6 +460,108 @@
   </si>
   <si>
     <t>data("MASC") == "2"</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>XDIA</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>NOMEMAE</t>
+  </si>
+  <si>
+    <t>REGDIA</t>
+  </si>
+  <si>
+    <t>HHOID</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>ROOM</t>
+  </si>
+  <si>
+    <t>RANGROUP</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>HHOID = ?</t>
+  </si>
+  <si>
+    <t>[data('HHOID')]</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>async_assign_single_string</t>
+  </si>
+  <si>
+    <t>person_name</t>
+  </si>
+  <si>
+    <t>_id = ?</t>
+  </si>
+  <si>
+    <t>id_RECEB_QUEM</t>
+  </si>
+  <si>
+    <t>[data('id_RECEB_QUEM')]</t>
+  </si>
+  <si>
+    <t>display.hide_adate</t>
   </si>
 </sst>
 </file>
@@ -468,7 +571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +632,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -556,13 +666,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -585,11 +696,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{BCFDBDD6-357D-4198-B289-FC33E94D2683}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -868,11 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,6 +1087,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G12:G24">
     <sortCondition ref="G12"/>
@@ -982,11 +1106,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1130,7 @@
     <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1046,13 +1170,16 @@
       <c r="M1" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>46</v>
       </c>
@@ -1063,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>46</v>
       </c>
@@ -1074,7 +1201,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>46</v>
       </c>
@@ -1085,7 +1212,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>46</v>
       </c>
@@ -1096,7 +1223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>46</v>
       </c>
@@ -1107,7 +1234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>46</v>
       </c>
@@ -1118,91 +1245,97 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>46</v>
       </c>
       <c r="G9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>68</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>62</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>64</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>63</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>65</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1212,67 +1345,55 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>69</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>140</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1283,206 +1404,240 @@
         <v>78</v>
       </c>
       <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
         <v>81</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>81</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>53</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>83</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>84</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" t="s">
         <v>87</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>83</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>91</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>83</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>53</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>93</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>95</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>97</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>53</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>108</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>103</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>64</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>53</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>109</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>105</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>106</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N49" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1493,11 +1648,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,41 +1862,41 @@
         <v>78</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="12">
         <v>7</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,13 +1904,13 @@
         <v>82</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,13 +1918,13 @@
         <v>82</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,45 +1932,45 @@
         <v>82</v>
       </c>
       <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23">
         <v>8</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
-      <c r="D23" s="14"/>
-    </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,58 +1978,58 @@
         <v>93</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="7">
         <v>8</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="13">
-        <v>1</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>112</v>
-      </c>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>108</v>
       </c>
       <c r="B30" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,46 +2037,46 @@
         <v>108</v>
       </c>
       <c r="B31" s="13">
+        <v>2</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="13">
         <v>8</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-    </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="13">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>117</v>
-      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>109</v>
       </c>
       <c r="B34" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,13 +2084,13 @@
         <v>109</v>
       </c>
       <c r="B35" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,13 +2098,13 @@
         <v>109</v>
       </c>
       <c r="B36" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,19 +2112,28 @@
         <v>109</v>
       </c>
       <c r="B37" s="13">
+        <v>4</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="13">
         <v>8</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D38" s="17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
@@ -2037,19 +2201,20 @@
       <c r="D51" s="13"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
@@ -2057,7 +2222,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
@@ -2065,10 +2230,10 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
@@ -2083,11 +2248,11 @@
       <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="15"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -2160,18 +2325,19 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
-      <c r="C83" s="15"/>
+      <c r="C83" s="7"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
+      <c r="C84" s="15"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
@@ -2226,6 +2392,9 @@
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2235,6 +2404,117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8E2E6F-8A2B-4A4F-AE63-85DB62363FE8}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2279,9 +2559,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2290,7 +2570,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
@@ -2324,19 +2604,27 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D83"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,7 +2636,7 @@
     <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -2362,11 +2650,345 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="10"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:C35">
-    <sortCondition ref="A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:I44">
+    <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A94C7-39D6-4ADB-A0A1-02C12FE321F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAE7901-07B0-4C20-B165-28356A346571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
   <si>
     <t>setting_name</t>
   </si>
@@ -562,6 +562,48 @@
   </si>
   <si>
     <t>display.hide_adate</t>
+  </si>
+  <si>
+    <t>YesNo</t>
+  </si>
+  <si>
+    <t>newNumber</t>
+  </si>
+  <si>
+    <t>Add other number?</t>
+  </si>
+  <si>
+    <t>Número de telefone</t>
+  </si>
+  <si>
+    <t>Adicionar outro número?</t>
+  </si>
+  <si>
+    <t>data("newNumber") == "1"</t>
+  </si>
+  <si>
+    <t>TELE1_VERI</t>
+  </si>
+  <si>
+    <t>TELE2_VERI</t>
+  </si>
+  <si>
+    <t>NOVONUM1</t>
+  </si>
+  <si>
+    <t>NOVONUM2</t>
+  </si>
+  <si>
+    <t>New number 1</t>
+  </si>
+  <si>
+    <t>New number 2</t>
+  </si>
+  <si>
+    <t>Novo número 1</t>
+  </si>
+  <si>
+    <t>Novo número 2</t>
   </si>
 </sst>
 </file>
@@ -1106,11 +1148,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1162,7 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.28515625" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
     <col min="9" max="9" width="29.85546875" customWidth="1"/>
@@ -1128,6 +1170,7 @@
     <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1436,7 @@
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1404,7 +1447,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="G26" t="s">
         <v>79</v>
@@ -1421,7 +1464,7 @@
         <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
         <v>81</v>
@@ -1431,213 +1474,281 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>39</v>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" t="s">
-        <v>85</v>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>58</v>
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
+      <c r="B35" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>57</v>
       </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38">
-        <v>8</v>
+      <c r="C38" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>58</v>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" t="s">
-        <v>66</v>
+      <c r="C44" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>58</v>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" t="s">
-        <v>107</v>
+      <c r="B47" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
-      </c>
-      <c r="N49" s="19" t="b">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="G49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" t="s">
+        <v>94</v>
+      </c>
+      <c r="N56" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1648,11 +1759,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,12 +2012,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" t="s">
         <v>71</v>
       </c>
       <c r="D20" t="s">
@@ -1915,29 +2026,15 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21">
+        <v>176</v>
+      </c>
+      <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D21" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1946,179 +2043,179 @@
         <v>82</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>101</v>
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="16"/>
-      <c r="D24" s="14"/>
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>100</v>
-      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="7">
-        <v>8</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="13">
-        <v>1</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>112</v>
+        <v>93</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="7">
+        <v>8</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="13">
-        <v>2</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="13">
-        <v>8</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="13">
-        <v>3</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,29 +2223,56 @@
         <v>109</v>
       </c>
       <c r="B38" s="13">
+        <v>2</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="13">
+        <v>4</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="13">
         <v>8</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D41" s="17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
@@ -2206,34 +2330,38 @@
       <c r="D52" s="13"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="13"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
+      <c r="C60" s="13"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
@@ -2245,14 +2373,13 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="15"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -2264,7 +2391,7 @@
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -2329,24 +2456,27 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
-      <c r="C84" s="15"/>
+      <c r="C84" s="7"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
+      <c r="C87" s="15"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
@@ -2395,6 +2525,15 @@
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="7"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2620,11 +2759,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,11 +2923,19 @@
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11"/>
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>142</v>
@@ -2796,63 +2943,49 @@
       <c r="C12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13"/>
+      <c r="G13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="G14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H15"/>
-      <c r="I15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H16"/>
-      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>142</v>
@@ -2864,11 +2997,21 @@
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18"/>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>142</v>
@@ -2877,14 +3020,14 @@
         <v>0</v>
       </c>
       <c r="H19"/>
-      <c r="I19"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C20" s="3" t="b">
         <v>0</v>
@@ -2894,7 +3037,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>142</v>
@@ -2902,23 +3045,15 @@
       <c r="C21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H21"/>
+      <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22"/>
+      <c r="B22"/>
+      <c r="I22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>142</v>
@@ -2930,11 +3065,21 @@
       <c r="I23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24"/>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>151</v>
+      <c r="A25" t="s">
+        <v>95</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>142</v>
@@ -2942,49 +3087,100 @@
       <c r="C25" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I25"/>
+      <c r="H25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="3" t="b">
+      <c r="C30" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I26"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I32"/>
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I33"/>
     </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36"/>
+    </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="10"/>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I44"/>
+      <c r="I37"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="10"/>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I48"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:I44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:I48">
     <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAE7901-07B0-4C20-B165-28356A346571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F66CBD6-3C5F-46EC-8CA7-079F247469CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="198">
   <si>
     <t>setting_name</t>
   </si>
@@ -498,6 +498,21 @@
     <t>ROOM</t>
   </si>
   <si>
+    <t>BAIRRO</t>
+  </si>
+  <si>
+    <t>TABZ</t>
+  </si>
+  <si>
+    <t>CAMO</t>
+  </si>
+  <si>
+    <t>FAM</t>
+  </si>
+  <si>
+    <t>HOUSEGRP</t>
+  </si>
+  <si>
     <t>RANGROUP</t>
   </si>
   <si>
@@ -604,6 +619,15 @@
   </si>
   <si>
     <t>Novo número 2</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>for logic</t>
   </si>
 </sst>
 </file>
@@ -715,7 +739,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -739,6 +763,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1131,7 +1157,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
         <v>148</v>
@@ -1148,11 +1174,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26:F27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1240,7 @@
         <v>37</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1271,10 +1297,10 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1282,10 +1308,10 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1293,10 +1319,10 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1304,86 +1330,92 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>68</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>63</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>65</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1393,67 +1425,55 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>69</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>140</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1464,13 +1484,13 @@
         <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1478,48 +1498,51 @@
         <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>39</v>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1527,228 +1550,242 @@
         <v>142</v>
       </c>
       <c r="F33" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H33" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>39</v>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>53</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>82</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>83</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>84</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>53</v>
       </c>
-      <c r="E39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="E40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" t="s">
         <v>87</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>91</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>83</v>
       </c>
-      <c r="I42">
+      <c r="I43">
         <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>57</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>91</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>83</v>
       </c>
-      <c r="I45">
+      <c r="I46">
         <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>53</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>93</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>95</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G50" t="s">
         <v>97</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>53</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>108</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>103</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>64</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H52" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>57</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>53</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>109</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>105</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>106</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" t="s">
+    <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" t="s">
         <v>94</v>
       </c>
-      <c r="N56" s="19" t="b">
+      <c r="N57" s="21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2012,7 +2049,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2026,7 +2063,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B21" s="10">
         <v>2</v>
@@ -2566,39 +2603,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -2607,24 +2644,24 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -2633,16 +2670,16 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
         <v>148</v>
@@ -2745,7 +2782,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -2759,11 +2796,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,22 +2887,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -2874,28 +2911,28 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>154</v>
+      <c r="A8" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>153</v>
+      <c r="A9" t="s">
+        <v>159</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>142</v>
@@ -2904,38 +2941,42 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10"/>
+        <v>152</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>79</v>
+      <c r="A11" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>142</v>
@@ -2943,62 +2984,60 @@
       <c r="C12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="G15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H17"/>
-      <c r="I17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>142</v>
@@ -3009,67 +3048,67 @@
       <c r="H18"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="3" t="b">
+      <c r="C19" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H19"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="3" t="b">
+      <c r="C20" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="3" t="b">
+      <c r="C21" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-      <c r="I22"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23"/>
+      <c r="B23"/>
       <c r="I23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C24" s="3" t="b">
         <v>0</v>
@@ -3079,19 +3118,20 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H25"/>
+      <c r="I25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>142</v>
@@ -3103,7 +3143,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>142</v>
@@ -3112,75 +3152,149 @@
         <v>0</v>
       </c>
       <c r="H27"/>
-      <c r="I27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28"/>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C31" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="I34"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="I36"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="I37"/>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I41" s="10"/>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="10"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I47"/>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I48"/>
     </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:I48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:I49">
     <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F66CBD6-3C5F-46EC-8CA7-079F247469CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D3805-FB85-4573-9684-4EA2E79BF7B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="244">
   <si>
     <t>setting_name</t>
   </si>
@@ -306,15 +306,9 @@
     <t>Ausente, foi deixada com outro/a</t>
   </si>
   <si>
-    <t>data("ACCEPT") == "2"</t>
-  </si>
-  <si>
     <t>assign</t>
   </si>
   <si>
-    <t>data("GRUPO2") == "2"</t>
-  </si>
-  <si>
     <t>Intension</t>
   </si>
   <si>
@@ -447,9 +441,6 @@
     <t>Do not have a phone number</t>
   </si>
   <si>
-    <t>Outra pessoa na casa</t>
-  </si>
-  <si>
     <t>Não tem um número de telefone</t>
   </si>
   <si>
@@ -628,6 +619,153 @@
   </si>
   <si>
     <t>for logic</t>
+  </si>
+  <si>
+    <t>FNO</t>
+  </si>
+  <si>
+    <t>fno id</t>
+  </si>
+  <si>
+    <t>data("ESTADO") == "8"</t>
+  </si>
+  <si>
+    <t>DUPLO</t>
+  </si>
+  <si>
+    <t>Equal to whom?</t>
+  </si>
+  <si>
+    <t>Igual a quem?</t>
+  </si>
+  <si>
+    <t>data("ACCEPT") == "1"</t>
+  </si>
+  <si>
+    <t>(data("ESTADO") == "1" || data("ESTADO") == "4" || data("ESTADO") == "5" ) &amp;&amp; data("OBS_IDADE") == null</t>
+  </si>
+  <si>
+    <t>data("OBS_IDADE") != null</t>
+  </si>
+  <si>
+    <t>OBS_IDADE</t>
+  </si>
+  <si>
+    <t>obs age</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;b&gt;&lt;font color = "red"&gt;{{data.OBS_IDADE}}&lt;/font&gt;&lt;/b&gt;&lt;/center&gt;</t>
+  </si>
+  <si>
+    <t>Name: {{data.NOME}}</t>
+  </si>
+  <si>
+    <t>Mother: {{data.NOMEMAE}}</t>
+  </si>
+  <si>
+    <t>Room: {{data.ROOM}}</t>
+  </si>
+  <si>
+    <t>Bed: {{data.BED}}</t>
+  </si>
+  <si>
+    <t>Nome: {{data.NOME}}</t>
+  </si>
+  <si>
+    <t>Mae: {{data.NOMEMAE}}</t>
+  </si>
+  <si>
+    <t>Cama: C:{{data.BED}}</t>
+  </si>
+  <si>
+    <t>Quarto: {{data.ROOM}}</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>Sex: Male</t>
+  </si>
+  <si>
+    <t>Sex: Female</t>
+  </si>
+  <si>
+    <t>Sexo: Feminino</t>
+  </si>
+  <si>
+    <t>Sexo: Masculino</t>
+  </si>
+  <si>
+    <t>data("SEX") == "1"</t>
+  </si>
+  <si>
+    <t>displayDOB</t>
+  </si>
+  <si>
+    <t>Nascimento: {{calculates.displayDOB}}</t>
+  </si>
+  <si>
+    <t>Regdia: {{calculates.displayREGDIA}}</t>
+  </si>
+  <si>
+    <t>XDIA: {{calculates.displayXDIA}}</t>
+  </si>
+  <si>
+    <t>Date of birth: {{calculates.displayDOB}}</t>
+  </si>
+  <si>
+    <t>displayXDIA</t>
+  </si>
+  <si>
+    <t>displayREGDIA</t>
+  </si>
+  <si>
+    <t>adate.display(data("DOB"))</t>
+  </si>
+  <si>
+    <t>adate.display(data("REGDIA"))</t>
+  </si>
+  <si>
+    <t>adate.display(data("XDIA"))</t>
+  </si>
+  <si>
+    <t>Group in study: {{data.RANGROUP}}</t>
+  </si>
+  <si>
+    <t>Grupo de estudo: {{data.RANGROUP}}</t>
+  </si>
+  <si>
+    <t>Commune</t>
+  </si>
+  <si>
+    <t>TELE1: {{data.TELE1}}</t>
+  </si>
+  <si>
+    <t>TELE2: {{data.TELE2}}</t>
+  </si>
+  <si>
+    <t>data("RANGROUP") == "2"</t>
+  </si>
+  <si>
+    <t>data("ESTADO") != "1" &amp;&amp; data("RANGROUP") == "1"</t>
+  </si>
+  <si>
+    <t>data("RANDGROUP") == "2"</t>
+  </si>
+  <si>
+    <t>data("ESTADO") != "1" || data("RANDGROUP") == "1"</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>inputAttributes.type</t>
+  </si>
+  <si>
+    <t>POID</t>
+  </si>
+  <si>
+    <t>IDOID</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1295,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1174,11 +1312,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1337,7 @@
     <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1240,553 +1378,723 @@
         <v>37</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
+      <c r="C16" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
+      <c r="B18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>39</v>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>38</v>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>184</v>
+      <c r="B26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s">
-        <v>79</v>
+      <c r="B27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" t="s">
-        <v>81</v>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="H29" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" t="s">
-        <v>189</v>
-      </c>
-      <c r="G33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>142</v>
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="H34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="E38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
         <v>178</v>
       </c>
-      <c r="G40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="F41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" t="s">
+        <v>190</v>
+      </c>
+      <c r="O45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" t="s">
+        <v>191</v>
+      </c>
+      <c r="O46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" t="s">
-        <v>83</v>
-      </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>83</v>
-      </c>
-      <c r="I46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="G52" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" t="s">
-        <v>106</v>
-      </c>
-      <c r="H55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="I55" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F57" t="s">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" t="s">
+        <v>93</v>
+      </c>
+      <c r="G62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" t="s">
         <v>94</v>
       </c>
-      <c r="N57" s="21" t="b">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G67" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" t="s">
+        <v>92</v>
+      </c>
+      <c r="N69" s="21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" t="s">
+        <v>93</v>
+      </c>
+      <c r="I71" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>239</v>
+      </c>
+      <c r="N73" s="21"/>
+    </row>
+    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" t="s">
+        <v>93</v>
+      </c>
+      <c r="I74" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="N74" s="21"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="N75" s="21"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1796,11 +2104,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,98 +2137,105 @@
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
+        <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
+        <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
+        <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="12" t="str">
+        <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="str">
+        <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="str">
+        <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="str">
+        <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1933,7 +2248,8 @@
       <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="str">
+        <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -1947,7 +2263,8 @@
       <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" t="str">
+        <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1961,7 +2278,8 @@
       <c r="A12" t="s">
         <v>70</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="str">
+        <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
@@ -1981,7 +2299,8 @@
       <c r="A14" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="str">
+        <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C14" t="s">
@@ -1995,7 +2314,8 @@
       <c r="A15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="str">
+        <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -2009,7 +2329,8 @@
       <c r="A16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="str">
+        <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -2023,35 +2344,38 @@
       <c r="A17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12" t="str">
+        <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="12" t="str">
+        <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20">
+        <v>178</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C20" t="s">
@@ -2063,9 +2387,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="10">
+        <v>178</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -2079,7 +2404,8 @@
       <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="str">
+        <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -2093,7 +2419,8 @@
       <c r="A24" t="s">
         <v>82</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="str">
+        <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -2107,7 +2434,8 @@
       <c r="A25" t="s">
         <v>82</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="str">
+        <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -2121,14 +2449,15 @@
       <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="str">
+        <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2137,9 +2466,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28">
+        <v>91</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -2151,9 +2481,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29">
+        <v>91</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -2165,30 +2496,32 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="7">
+        <v>91</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2196,60 +2529,64 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="13">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="13">
+        <v>106</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="13">
-        <v>8</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>101</v>
-      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="13">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="B37" t="str">
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>117</v>
@@ -2257,59 +2594,43 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="13">
-        <v>2</v>
+        <v>107</v>
+      </c>
+      <c r="B38" t="str">
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="13">
-        <v>3</v>
+        <v>107</v>
+      </c>
+      <c r="B39" s="12" t="str">
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="13">
-        <v>4</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>121</v>
-      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="13">
-        <v>8</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>101</v>
-      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
@@ -2372,37 +2693,34 @@
       <c r="D53" s="13"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
@@ -2410,6 +2728,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
@@ -2420,7 +2739,7 @@
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -2428,7 +2747,7 @@
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="15"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -2497,23 +2816,21 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="C85" s="15"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
@@ -2565,12 +2882,6 @@
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="7"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2585,7 +2896,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,39 +2914,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -2644,24 +2955,24 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -2670,19 +2981,19 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +3007,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,16 +3025,28 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -2782,7 +3105,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -2796,11 +3119,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,22 +3151,22 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
@@ -2858,7 +3181,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>61</v>
@@ -2872,7 +3195,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -2887,22 +3210,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -2917,7 +3240,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
@@ -2932,10 +3255,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C9" s="3" t="b">
         <v>0</v>
@@ -2947,21 +3270,21 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>61</v>
@@ -2979,7 +3302,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="b">
         <v>0</v>
@@ -2990,7 +3313,7 @@
         <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="b">
         <v>0</v>
@@ -3005,7 +3328,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="b">
         <v>0</v>
@@ -3025,7 +3348,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>61</v>
@@ -3033,95 +3356,93 @@
       <c r="C17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="19" t="b">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="H19"/>
+      <c r="I19"/>
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>142</v>
+        <v>184</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="19" t="b">
         <v>0</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>142</v>
+        <v>185</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="19" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C22" s="19" t="b">
         <v>0</v>
       </c>
+      <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-      <c r="I23"/>
+    <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24"/>
+      <c r="B24"/>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="b">
         <v>0</v>
@@ -3131,22 +3452,23 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H26"/>
+      <c r="I26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="b">
         <v>0</v>
@@ -3155,137 +3477,194 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H28"/>
-      <c r="I28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29"/>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C32" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="I32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>197</v>
+        <v>179</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I34"/>
+        <v>194</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I35"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I37"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="I38"/>
     </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I42" s="10"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I47"/>
+      <c r="A42" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I48"/>
@@ -3293,8 +3672,11 @@
     <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49"/>
     </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:I49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:I50">
     <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D3805-FB85-4573-9684-4EA2E79BF7B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE91D9C2-8069-496A-87D5-5D82217AB83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="246">
   <si>
     <t>setting_name</t>
   </si>
@@ -306,6 +306,9 @@
     <t>Ausente, foi deixada com outro/a</t>
   </si>
   <si>
+    <t>data("ACCEPT") == "2"</t>
+  </si>
+  <si>
     <t>assign</t>
   </si>
   <si>
@@ -639,9 +642,6 @@
     <t>Igual a quem?</t>
   </si>
   <si>
-    <t>data("ACCEPT") == "1"</t>
-  </si>
-  <si>
     <t>(data("ESTADO") == "1" || data("ESTADO") == "4" || data("ESTADO") == "5" ) &amp;&amp; data("OBS_IDADE") == null</t>
   </si>
   <si>
@@ -766,6 +766,12 @@
   </si>
   <si>
     <t>IDOID</t>
+  </si>
+  <si>
+    <t>data("ACCEPT") != "2"</t>
+  </si>
+  <si>
+    <t>data("id_RECEB_QUEM") != null</t>
   </si>
 </sst>
 </file>
@@ -1295,10 +1301,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1312,11 +1318,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1384,7 @@
         <v>37</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>241</v>
@@ -1627,7 +1633,7 @@
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1635,13 +1641,13 @@
         <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1678,10 +1684,10 @@
         <v>69</v>
       </c>
       <c r="G34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" t="s">
         <v>137</v>
-      </c>
-      <c r="H34" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -1691,26 +1697,35 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>201</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>38</v>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>185</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -1721,13 +1736,13 @@
         <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -1735,51 +1750,51 @@
         <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G40" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="H40" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" t="s">
-        <v>178</v>
-      </c>
-      <c r="F41" t="s">
-        <v>179</v>
-      </c>
-      <c r="G41" t="s">
-        <v>180</v>
-      </c>
-      <c r="H41" t="s">
-        <v>182</v>
+      <c r="B41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>38</v>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44" t="s">
+        <v>191</v>
+      </c>
+      <c r="O44" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -1787,136 +1802,131 @@
         <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G45" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O45" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" t="s">
-        <v>189</v>
-      </c>
-      <c r="H46" t="s">
-        <v>191</v>
-      </c>
-      <c r="O46" t="s">
-        <v>240</v>
+      <c r="B46" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" t="s">
-        <v>166</v>
-      </c>
-      <c r="F52" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" t="s">
-        <v>87</v>
-      </c>
-      <c r="H52" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" t="s">
-        <v>83</v>
-      </c>
-      <c r="I55" t="str">
-        <f>"8"</f>
-        <v>8</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" t="s">
-        <v>237</v>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" t="str">
+        <f>"3"</f>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I58" t="str">
         <f>"2"</f>
@@ -1925,108 +1935,94 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>38</v>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" t="str">
+        <f>"8"</f>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62" t="s">
-        <v>93</v>
-      </c>
-      <c r="G62" t="s">
-        <v>95</v>
-      </c>
-      <c r="H62" t="s">
-        <v>94</v>
+      <c r="B62" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" t="s">
-        <v>106</v>
-      </c>
-      <c r="F64" t="s">
-        <v>101</v>
-      </c>
-      <c r="G64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" t="s">
-        <v>66</v>
+      <c r="B64" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G68" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" t="s">
-        <v>103</v>
-      </c>
-      <c r="G67" t="s">
-        <v>104</v>
-      </c>
-      <c r="H67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" t="s">
-        <v>173</v>
-      </c>
-      <c r="F69" t="s">
-        <v>92</v>
-      </c>
-      <c r="N69" s="21" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
@@ -2034,19 +2030,24 @@
         <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
-      </c>
-      <c r="I71" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <v>104</v>
+      </c>
+      <c r="G71" t="s">
+        <v>105</v>
+      </c>
+      <c r="H71" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
@@ -2059,41 +2060,103 @@
         <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N73" s="21"/>
     </row>
-    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" t="s">
-        <v>93</v>
-      </c>
-      <c r="I74" t="str">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="N74" s="21"/>
-    </row>
-    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>58</v>
-      </c>
-      <c r="N75" s="21"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" t="s">
+        <v>239</v>
+      </c>
+      <c r="N77" s="21"/>
+    </row>
+    <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="N78" s="21"/>
+    </row>
+    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="N79" s="21"/>
+    </row>
+    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="N80" s="21"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" t="s">
+        <v>174</v>
+      </c>
+      <c r="F82" t="s">
+        <v>93</v>
+      </c>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2142,10 +2205,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2157,10 +2220,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2172,10 +2235,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2187,10 +2250,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2202,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2217,10 +2280,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2232,10 +2295,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2364,15 +2427,15 @@
         <v>7</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B20" t="str">
         <f>"1"</f>
@@ -2387,7 +2450,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="str">
         <f>"2"</f>
@@ -2454,10 +2517,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2466,7 +2529,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" t="str">
         <f>"1"</f>
@@ -2481,7 +2544,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" t="str">
         <f>"2"</f>
@@ -2496,32 +2559,32 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,32 +2592,32 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B33" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2564,62 +2627,62 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B36" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B38" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B39" s="12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,39 +2977,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -2955,24 +3018,24 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -2981,19 +3044,19 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3168,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -3121,7 +3184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -3151,22 +3214,22 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
@@ -3181,7 +3244,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>61</v>
@@ -3195,7 +3258,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -3210,22 +3273,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -3240,7 +3303,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
@@ -3255,10 +3318,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="b">
         <v>0</v>
@@ -3270,7 +3333,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>61</v>
@@ -3279,12 +3342,12 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>61</v>
@@ -3348,7 +3411,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>61</v>
@@ -3384,7 +3447,7 @@
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>53</v>
@@ -3397,7 +3460,7 @@
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
@@ -3410,7 +3473,7 @@
     </row>
     <row r="22" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>61</v>
@@ -3423,7 +3486,7 @@
     </row>
     <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>61</v>
@@ -3452,7 +3515,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>61</v>
@@ -3465,7 +3528,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>53</v>
@@ -3477,7 +3540,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>53</v>
@@ -3489,7 +3552,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>53</v>
@@ -3505,10 +3568,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" s="3" t="b">
         <v>0</v>
@@ -3517,7 +3580,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>61</v>
@@ -3529,10 +3592,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C33" s="3" t="b">
         <v>1</v>
@@ -3540,51 +3603,51 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I35"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
         <v>61</v>
@@ -3593,37 +3656,37 @@
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I37"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I38"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I39"/>
     </row>
@@ -3646,7 +3709,7 @@
         <v>242</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C41" s="3" t="b">
         <v>0</v>
@@ -3657,7 +3720,7 @@
         <v>243</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" s="3" t="b">
         <v>0</v>

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE91D9C2-8069-496A-87D5-5D82217AB83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBF1A8C-AAB5-4D59-AC45-F0E7B23403E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
     </sheetView>
@@ -3184,9 +3184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBF1A8C-AAB5-4D59-AC45-F0E7B23403E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D539B-E148-42B0-B6A8-B3668763F08F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="244">
   <si>
     <t>setting_name</t>
   </si>
@@ -306,12 +306,6 @@
     <t>Ausente, foi deixada com outro/a</t>
   </si>
   <si>
-    <t>data("ACCEPT") == "2"</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
     <t>Intension</t>
   </si>
   <si>
@@ -576,21 +570,9 @@
     <t>YesNo</t>
   </si>
   <si>
-    <t>newNumber</t>
-  </si>
-  <si>
-    <t>Add other number?</t>
-  </si>
-  <si>
     <t>Número de telefone</t>
   </si>
   <si>
-    <t>Adicionar outro número?</t>
-  </si>
-  <si>
-    <t>data("newNumber") == "1"</t>
-  </si>
-  <si>
     <t>TELE1_VERI</t>
   </si>
   <si>
@@ -642,9 +624,6 @@
     <t>Igual a quem?</t>
   </si>
   <si>
-    <t>(data("ESTADO") == "1" || data("ESTADO") == "4" || data("ESTADO") == "5" ) &amp;&amp; data("OBS_IDADE") == null</t>
-  </si>
-  <si>
     <t>data("OBS_IDADE") != null</t>
   </si>
   <si>
@@ -738,24 +717,6 @@
     <t>Commune</t>
   </si>
   <si>
-    <t>TELE1: {{data.TELE1}}</t>
-  </si>
-  <si>
-    <t>TELE2: {{data.TELE2}}</t>
-  </si>
-  <si>
-    <t>data("RANGROUP") == "2"</t>
-  </si>
-  <si>
-    <t>data("ESTADO") != "1" &amp;&amp; data("RANGROUP") == "1"</t>
-  </si>
-  <si>
-    <t>data("RANDGROUP") == "2"</t>
-  </si>
-  <si>
-    <t>data("ESTADO") != "1" || data("RANDGROUP") == "1"</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -768,10 +729,43 @@
     <t>IDOID</t>
   </si>
   <si>
-    <t>data("ACCEPT") != "2"</t>
-  </si>
-  <si>
     <t>data("id_RECEB_QUEM") != null</t>
+  </si>
+  <si>
+    <t>Missing information</t>
+  </si>
+  <si>
+    <t>Falta informação</t>
+  </si>
+  <si>
+    <t>Number 1: {{data.TELE1}}</t>
+  </si>
+  <si>
+    <t>Number 2: {{data.TELE2}}</t>
+  </si>
+  <si>
+    <t>Número 1: {{data.TELE1}}</t>
+  </si>
+  <si>
+    <t>Número 2: {{data.TELE2}}</t>
+  </si>
+  <si>
+    <t>Other number</t>
+  </si>
+  <si>
+    <t>Outro número</t>
+  </si>
+  <si>
+    <t>New Number</t>
+  </si>
+  <si>
+    <t>Nobu número</t>
+  </si>
+  <si>
+    <t>TELEOU_VERI</t>
+  </si>
+  <si>
+    <t>(data("ESTADO") == "1" || data("ESTADO") == "4" || data("ESTADO") == "5"  || data("ESTADO") == "99") &amp;&amp; data("OBS_IDADE") == null</t>
   </si>
 </sst>
 </file>
@@ -883,7 +877,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -909,9 +903,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1301,10 +1292,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1318,11 +1309,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,10 +1375,10 @@
         <v>37</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1400,10 +1391,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1411,10 +1402,10 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1422,7 +1413,7 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1430,15 +1421,15 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1446,10 +1437,10 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1462,10 +1453,10 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1473,10 +1464,10 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1484,10 +1475,10 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1495,10 +1486,10 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1506,10 +1497,10 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H14" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1517,10 +1508,10 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1528,7 +1519,7 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -1536,10 +1527,10 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H17" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1633,7 +1624,7 @@
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1641,13 +1632,13 @@
         <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H29" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1665,7 +1656,7 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -1684,10 +1675,10 @@
         <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -1708,7 +1699,7 @@
         <v>77</v>
       </c>
       <c r="H37" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -1716,16 +1707,16 @@
         <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="F38" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G38" t="s">
         <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -1733,16 +1724,16 @@
         <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
         <v>235</v>
       </c>
       <c r="H39" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -1750,413 +1741,230 @@
         <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="G40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
         <v>181</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G41" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>39</v>
+      <c r="H41" t="s">
+        <v>185</v>
+      </c>
+      <c r="O41" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" t="s">
         <v>184</v>
+      </c>
+      <c r="H42" t="s">
+        <v>186</v>
+      </c>
+      <c r="O42" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" t="s">
-        <v>189</v>
-      </c>
-      <c r="H44" t="s">
-        <v>191</v>
-      </c>
-      <c r="O44" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>192</v>
-      </c>
-      <c r="O45" t="s">
-        <v>240</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>58</v>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>53</v>
       </c>
-      <c r="E49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>57</v>
       </c>
-      <c r="C50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" t="s">
         <v>91</v>
       </c>
-      <c r="F51" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" t="s">
-        <v>167</v>
-      </c>
-      <c r="F54" t="s">
-        <v>176</v>
-      </c>
-      <c r="G54" t="s">
-        <v>87</v>
-      </c>
-      <c r="H54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" t="s">
-        <v>83</v>
-      </c>
-      <c r="I57" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58" t="s">
-        <v>94</v>
-      </c>
-      <c r="I58" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" t="s">
-        <v>83</v>
-      </c>
-      <c r="I61" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G66" t="s">
-        <v>96</v>
-      </c>
-      <c r="H66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" t="s">
-        <v>102</v>
-      </c>
-      <c r="G68" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71" t="s">
-        <v>104</v>
-      </c>
-      <c r="G71" t="s">
-        <v>105</v>
-      </c>
-      <c r="H71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" t="s">
-        <v>244</v>
-      </c>
-      <c r="N73" s="21"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" t="s">
-        <v>94</v>
-      </c>
-      <c r="I75" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" t="s">
-        <v>239</v>
-      </c>
-      <c r="N77" s="21"/>
-    </row>
-    <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" t="s">
-        <v>94</v>
-      </c>
-      <c r="I78" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-      <c r="N78" s="21"/>
-    </row>
-    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>58</v>
-      </c>
-      <c r="N79" s="21"/>
-    </row>
-    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>58</v>
-      </c>
-      <c r="N80" s="21"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>173</v>
-      </c>
-      <c r="E82" t="s">
-        <v>174</v>
-      </c>
-      <c r="F82" t="s">
-        <v>93</v>
-      </c>
-      <c r="N82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2167,11 +1975,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2205,10 +2013,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2220,10 +2028,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2235,10 +2043,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2250,10 +2058,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2265,10 +2073,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2280,10 +2088,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2295,46 +2103,46 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
     </row>
     <row r="11" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
       <c r="B11" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>75</v>
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2342,65 +2150,65 @@
         <v>70</v>
       </c>
       <c r="B12" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
     <row r="14" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>78</v>
+      <c r="A14" t="s">
+        <v>70</v>
       </c>
       <c r="B14" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"9"</f>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B16" t="str">
-        <f>"3"</f>
-        <v>3</v>
+      <c r="B16" s="12" t="str">
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2408,89 +2216,89 @@
         <v>78</v>
       </c>
       <c r="B17" s="12" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>233</v>
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="12" t="str">
+      <c r="B18" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="12" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" t="str">
+      <c r="C19" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" t="str">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="B23" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>71</v>
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2498,14 +2306,14 @@
         <v>82</v>
       </c>
       <c r="B25" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,176 +2321,186 @@
         <v>82</v>
       </c>
       <c r="B26" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="16"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" t="str">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="16"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="str">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D32" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" t="str">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" t="str">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" t="str">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C38" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="12" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>120</v>
+        <v>105</v>
+      </c>
+      <c r="B39" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,29 +2509,79 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="12" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
@@ -2756,42 +2624,48 @@
       <c r="D53" s="13"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
@@ -2802,8 +2676,7 @@
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="15"/>
-      <c r="C66" s="7"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
@@ -2822,7 +2695,7 @@
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -2879,30 +2752,35 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
-      <c r="C85" s="15"/>
+      <c r="C85" s="7"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="C87" s="7"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
+      <c r="C90" s="15"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
@@ -2945,6 +2823,21 @@
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2977,39 +2870,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -3018,24 +2911,24 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" t="s">
         <v>169</v>
       </c>
-      <c r="F2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" t="s">
-        <v>171</v>
-      </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -3044,19 +2937,19 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
         <v>175</v>
       </c>
-      <c r="F3" t="s">
-        <v>177</v>
-      </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3089,26 +2982,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3061,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -3184,9 +3077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,22 +3107,22 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
@@ -3244,7 +3137,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>61</v>
@@ -3258,7 +3151,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -3273,22 +3166,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -3303,7 +3196,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
@@ -3318,10 +3211,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3" t="b">
         <v>0</v>
@@ -3333,7 +3226,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>61</v>
@@ -3342,12 +3235,12 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>61</v>
@@ -3411,7 +3304,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>61</v>
@@ -3447,7 +3340,7 @@
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>53</v>
@@ -3460,7 +3353,7 @@
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
@@ -3471,22 +3364,20 @@
       <c r="H21" s="20"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>61</v>
@@ -3494,31 +3385,31 @@
       <c r="C23" s="19" t="b">
         <v>0</v>
       </c>
+      <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-      <c r="I24"/>
+    <row r="24" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25"/>
+      <c r="B25"/>
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="b">
         <v>0</v>
@@ -3528,19 +3419,20 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C27" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H27"/>
+      <c r="I27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>53</v>
@@ -3552,7 +3444,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>53</v>
@@ -3561,93 +3453,94 @@
         <v>0</v>
       </c>
       <c r="H29"/>
-      <c r="I29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30"/>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C33" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="I33"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I35"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
         <v>61</v>
@@ -3656,43 +3549,43 @@
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I37"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I38"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I39"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>61</v>
@@ -3701,15 +3594,15 @@
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C41" s="3" t="b">
         <v>0</v>
@@ -3717,10 +3610,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C42" s="3" t="b">
         <v>0</v>

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D539B-E148-42B0-B6A8-B3668763F08F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604E6E89-83AA-454F-8D05-2DEC57F51751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="254">
   <si>
     <t>setting_name</t>
   </si>
@@ -766,6 +766,36 @@
   </si>
   <si>
     <t>(data("ESTADO") == "1" || data("ESTADO") == "4" || data("ESTADO") == "5"  || data("ESTADO") == "99") &amp;&amp; data("OBS_IDADE") == null</t>
+  </si>
+  <si>
+    <t>data("TELE1") != null</t>
+  </si>
+  <si>
+    <t>data("TELE2") != null</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>dontKnowDate</t>
+  </si>
+  <si>
+    <t>datasains</t>
+  </si>
+  <si>
+    <t>Don't know the date</t>
+  </si>
+  <si>
+    <t>Não sabe a data</t>
+  </si>
+  <si>
+    <t>data("datasains") != null</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>data("datasains")</t>
   </si>
 </sst>
 </file>
@@ -1309,11 +1339,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,7 +1552,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>46</v>
       </c>
@@ -1533,22 +1563,22 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>53</v>
       </c>
@@ -1565,7 +1595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>57</v>
       </c>
@@ -1573,7 +1603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>30</v>
       </c>
@@ -1586,385 +1616,449 @@
       <c r="H23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" t="s">
+        <v>194</v>
+      </c>
+      <c r="H33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>53</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
         <v>177</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F43" t="s">
         <v>179</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G43" t="s">
         <v>234</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H43" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>53</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E46" t="s">
         <v>177</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F46" t="s">
         <v>180</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G46" t="s">
         <v>235</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H46" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>53</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E48" t="s">
         <v>78</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F48" t="s">
         <v>242</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G48" t="s">
         <v>238</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H48" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>61</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F49" t="s">
         <v>181</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G49" t="s">
         <v>183</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H49" t="s">
         <v>185</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O49" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>61</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F50" t="s">
         <v>182</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G50" t="s">
         <v>184</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H50" t="s">
         <v>186</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O50" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" t="s">
-        <v>87</v>
-      </c>
-      <c r="H47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" t="s">
-        <v>94</v>
-      </c>
-      <c r="H51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>53</v>
       </c>
       <c r="E53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" t="s">
         <v>105</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F61" t="s">
         <v>100</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G61" t="s">
         <v>64</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>57</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C63" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
         <v>53</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E64" t="s">
         <v>106</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F64" t="s">
         <v>102</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G64" t="s">
         <v>103</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H64" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C66" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
         <v>171</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E67" t="s">
         <v>172</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F67" t="s">
         <v>91</v>
       </c>
-      <c r="N59" t="b">
+      <c r="N67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1975,17 +2069,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
@@ -2132,218 +2226,209 @@
     </row>
     <row r="11" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="B11" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"D:NS,M:NS,Y:NS"</f>
+        <v>D:NS,M:NS,Y:NS</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="B12" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>75</v>
+        <f>"D:1,M:1,Y:1955"</f>
+        <v>D:1,M:1,Y:1955</v>
+      </c>
+      <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
     <row r="14" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>232</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="12" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="12" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
     <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
     </row>
     <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="12" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="12" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>177</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B24" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>177</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B25" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>177</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B26" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>232</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2351,14 +2436,14 @@
         <v>82</v>
       </c>
       <c r="B28" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>98</v>
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,78 +2451,78 @@
         <v>82</v>
       </c>
       <c r="B29" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>232</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D32" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>97</v>
-      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
       <c r="B34" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,127 +2530,127 @@
         <v>90</v>
       </c>
       <c r="B35" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>232</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D38" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>105</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B40" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>105</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B41" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B42" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>232</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>117</v>
-      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="12" t="str">
-        <f>"4"</f>
-        <v>4</v>
+      <c r="B44" t="str">
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,30 +2658,60 @@
         <v>106</v>
       </c>
       <c r="B45" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="12" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>232</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D48" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
@@ -2649,34 +2764,38 @@
       <c r="D58" s="13"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
-      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
-      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
@@ -2688,14 +2807,13 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="15"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -2707,7 +2825,7 @@
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -2772,24 +2890,27 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
-      <c r="C90" s="15"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
+      <c r="C93" s="15"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
@@ -2838,6 +2959,15 @@
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3075,11 +3205,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,18 +3434,18 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="C17" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>61</v>
@@ -3323,37 +3453,35 @@
       <c r="C18" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>69</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>179</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="C20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
@@ -3362,35 +3490,35 @@
         <v>0</v>
       </c>
       <c r="H21" s="20"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>242</v>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="C22" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>61</v>
@@ -3398,31 +3526,31 @@
       <c r="C24" s="19" t="b">
         <v>0</v>
       </c>
+      <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="I25"/>
+    <row r="25" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26"/>
+      <c r="B26"/>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="b">
         <v>0</v>
@@ -3432,19 +3560,20 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H28"/>
+      <c r="I28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>53</v>
@@ -3456,7 +3585,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>53</v>
@@ -3465,52 +3594,50 @@
         <v>0</v>
       </c>
       <c r="H30"/>
-      <c r="I30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31"/>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="I32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="3" t="b">
+      <c r="C34" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="I34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
         <v>138</v>
@@ -3521,11 +3648,10 @@
       <c r="D35" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I35"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
         <v>138</v>
@@ -3540,10 +3666,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -3555,10 +3681,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -3569,37 +3695,38 @@
       <c r="I38"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="3" t="b">
+      <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I39"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="C40" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>198</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="I40"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>61</v>
@@ -3607,10 +3734,13 @@
       <c r="C41" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D41" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>61</v>
@@ -3620,10 +3750,18 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I43" s="10"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I48"/>
+      <c r="A43" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="10"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49"/>
@@ -3631,8 +3769,11 @@
     <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50"/>
     </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:I50">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:I51">
     <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604E6E89-83AA-454F-8D05-2DEC57F51751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2555E5-7E7F-43A5-A2A8-9C3B0522C736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="266">
   <si>
     <t>setting_name</t>
   </si>
@@ -796,6 +796,42 @@
   </si>
   <si>
     <t>data("datasains")</t>
+  </si>
+  <si>
+    <t>data("REGDIA") == null</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;b&gt;&lt;font color = "red"&gt;NEW PERSON&lt;/font&gt;&lt;/b&gt;&lt;/center&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;b&gt;&lt;font color = "red"&gt;NOVA PESSOA&lt;/font&gt;&lt;/b&gt;&lt;/center&gt;</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Tabz: {{data.TABZ}}</t>
+  </si>
+  <si>
+    <t>House: {{data.CAMO}}</t>
+  </si>
+  <si>
+    <t>House group: {{data.HOUSEGRP}}</t>
+  </si>
+  <si>
+    <t>Family: {{data.FAM}}</t>
+  </si>
+  <si>
+    <t>Camo: {{data.CAMO}}</t>
+  </si>
+  <si>
+    <t>Grupo: {{data.HOUSEGRP}}</t>
+  </si>
+  <si>
+    <t>Família: {{data.FAM}}</t>
   </si>
 </sst>
 </file>
@@ -1339,11 +1375,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,126 +1447,132 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="G4" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="G8" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="G9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>217</v>
-      </c>
-      <c r="H12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" t="s">
-        <v>207</v>
-      </c>
-    </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" t="s">
-        <v>206</v>
+      <c r="B14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1538,414 +1580,396 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
         <v>224</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" t="s">
-        <v>247</v>
-      </c>
-      <c r="F24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>61</v>
       </c>
-      <c r="F33" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" t="s">
-        <v>194</v>
-      </c>
-      <c r="H33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="F42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" t="s">
-        <v>234</v>
-      </c>
-      <c r="H43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G46" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="H46" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>53</v>
       </c>
-      <c r="E48" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" t="s">
-        <v>242</v>
-      </c>
-      <c r="G48" t="s">
-        <v>238</v>
-      </c>
-      <c r="H48" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" t="s">
-        <v>181</v>
-      </c>
-      <c r="G49" t="s">
-        <v>183</v>
-      </c>
-      <c r="H49" t="s">
-        <v>185</v>
-      </c>
-      <c r="O49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" t="s">
-        <v>182</v>
-      </c>
-      <c r="G50" t="s">
-        <v>184</v>
-      </c>
-      <c r="H50" t="s">
-        <v>186</v>
-      </c>
-      <c r="O50" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>39</v>
+      <c r="E51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
         <v>53</v>
       </c>
-      <c r="E53" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" t="s">
-        <v>87</v>
-      </c>
-      <c r="H55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>58</v>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" t="s">
+        <v>234</v>
+      </c>
+      <c r="H56" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
@@ -1953,24 +1977,21 @@
         <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="F59" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="G59" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="H59" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
@@ -1978,92 +1999,236 @@
         <v>53</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="G61" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="H61" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>58</v>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>181</v>
+      </c>
+      <c r="G62" t="s">
+        <v>183</v>
+      </c>
+      <c r="H62" t="s">
+        <v>185</v>
+      </c>
+      <c r="O62" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" t="s">
-        <v>101</v>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" t="s">
+        <v>182</v>
+      </c>
+      <c r="G63" t="s">
+        <v>184</v>
+      </c>
+      <c r="H63" t="s">
+        <v>186</v>
+      </c>
+      <c r="O63" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" t="s">
-        <v>106</v>
-      </c>
-      <c r="F64" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" t="s">
-        <v>103</v>
-      </c>
-      <c r="H64" t="s">
-        <v>104</v>
+      <c r="B64" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="D66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>57</v>
       </c>
-      <c r="C66" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>171</v>
-      </c>
-      <c r="E67" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" t="s">
-        <v>91</v>
-      </c>
-      <c r="N67" t="b">
-        <v>1</v>
+      <c r="C67" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>58</v>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" t="s">
+        <v>92</v>
+      </c>
+      <c r="G72" t="s">
+        <v>94</v>
+      </c>
+      <c r="H72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" t="s">
+        <v>172</v>
+      </c>
+      <c r="F80" t="s">
+        <v>91</v>
+      </c>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2555E5-7E7F-43A5-A2A8-9C3B0522C736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BA8D4E-596D-4E64-B431-7C8DA737936E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="269">
   <si>
     <t>setting_name</t>
   </si>
@@ -832,6 +832,15 @@
   </si>
   <si>
     <t>Família: {{data.FAM}}</t>
+  </si>
+  <si>
+    <t>No, refused</t>
+  </si>
+  <si>
+    <t>data("MASC") != "3"</t>
+  </si>
+  <si>
+    <t>Não, recusou</t>
   </si>
 </sst>
 </file>
@@ -1375,11 +1384,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,12 +2059,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>53</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>57</v>
       </c>
@@ -2080,7 +2089,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>53</v>
       </c>
@@ -2097,132 +2106,145 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>53</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>90</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>92</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G73" t="s">
         <v>94</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H73" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>57</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
         <v>53</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>105</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>100</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>64</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H75" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>57</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
         <v>53</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>106</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>102</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>103</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>57</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
         <v>171</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>172</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>91</v>
       </c>
-      <c r="N80" t="b">
+      <c r="N81" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2236,9 +2258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BA8D4E-596D-4E64-B431-7C8DA737936E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BDB246-A48C-4A95-B0F5-9B37A248476C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,9 +408,6 @@
     <t>Travelling</t>
   </si>
   <si>
-    <t>Not found</t>
-  </si>
-  <si>
     <t>Duplo</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>Ausente</t>
   </si>
   <si>
-    <t>Não encontrado</t>
-  </si>
-  <si>
     <t>Mudou</t>
   </si>
   <si>
@@ -841,6 +835,12 @@
   </si>
   <si>
     <t>Não, recusou</t>
+  </si>
+  <si>
+    <t>Desconhecido</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1450,10 +1450,10 @@
         <v>37</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1474,10 +1474,10 @@
         <v>46</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1485,13 +1485,13 @@
         <v>61</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1499,30 +1499,30 @@
         <v>61</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1530,10 +1530,10 @@
         <v>46</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1541,10 +1541,10 @@
         <v>46</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1552,10 +1552,10 @@
         <v>46</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1563,10 +1563,10 @@
         <v>46</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
     </row>
     <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1589,10 +1589,10 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1600,10 +1600,10 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1619,15 +1619,15 @@
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1635,10 +1635,10 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1651,10 +1651,10 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1662,10 +1662,10 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1673,10 +1673,10 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1684,10 +1684,10 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1695,10 +1695,10 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1706,10 +1706,10 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1725,10 +1725,10 @@
         <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1795,13 +1795,13 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" t="s">
         <v>246</v>
-      </c>
-      <c r="E37" t="s">
-        <v>247</v>
-      </c>
-      <c r="F37" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -1809,18 +1809,18 @@
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F39" t="s">
         <v>62</v>
       </c>
       <c r="I39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -1865,7 +1865,7 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -1873,13 +1873,13 @@
         <v>61</v>
       </c>
       <c r="F46" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" t="s">
         <v>193</v>
-      </c>
-      <c r="G46" t="s">
-        <v>194</v>
-      </c>
-      <c r="H46" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
@@ -1916,10 +1916,10 @@
         <v>69</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
@@ -1956,16 +1956,16 @@
         <v>53</v>
       </c>
       <c r="E56" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" t="s">
         <v>177</v>
       </c>
-      <c r="F56" t="s">
-        <v>179</v>
-      </c>
       <c r="G56" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" t="s">
         <v>234</v>
-      </c>
-      <c r="H56" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
@@ -1986,16 +1986,16 @@
         <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G59" t="s">
+        <v>233</v>
+      </c>
+      <c r="H59" t="s">
         <v>235</v>
-      </c>
-      <c r="H59" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
@@ -2011,13 +2011,13 @@
         <v>78</v>
       </c>
       <c r="F61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
@@ -2025,16 +2025,16 @@
         <v>61</v>
       </c>
       <c r="F62" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" t="s">
         <v>181</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>183</v>
       </c>
-      <c r="H62" t="s">
-        <v>185</v>
-      </c>
       <c r="O62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
@@ -2042,16 +2042,16 @@
         <v>61</v>
       </c>
       <c r="F63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G63" t="s">
         <v>182</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>184</v>
       </c>
-      <c r="H63" t="s">
-        <v>186</v>
-      </c>
       <c r="O63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
@@ -2086,7 +2086,7 @@
         <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -2094,10 +2094,10 @@
         <v>53</v>
       </c>
       <c r="E68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G68" t="s">
         <v>87</v>
@@ -2121,7 +2121,7 @@
         <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -2211,15 +2211,15 @@
         <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F81" t="s">
         <v>91</v>
@@ -2259,8 +2259,8 @@
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,7 +2297,7 @@
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
         <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
         <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2369,10 +2369,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2384,10 +2384,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2399,10 +2399,10 @@
         <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2413,32 +2413,32 @@
     </row>
     <row r="11" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B11" t="str">
         <f>"D:NS,M:NS,Y:NS"</f>
         <v>D:NS,M:NS,Y:NS</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B12" t="str">
         <f>"D:1,M:1,Y:1955"</f>
         <v>D:1,M:1,Y:1955</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2501,10 +2501,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2525,7 +2525,7 @@
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2537,10 +2537,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2567,15 +2567,15 @@
         <v>7</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B24" t="str">
         <f>"1"</f>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B25" t="str">
         <f>"2"</f>
@@ -2605,17 +2605,17 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B26" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" t="s">
         <v>266</v>
-      </c>
-      <c r="D30" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,10 +2687,10 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2766,10 +2766,10 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2814,10 +2814,10 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2894,10 +2894,10 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -3187,39 +3187,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -3228,24 +3228,24 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
         <v>167</v>
       </c>
-      <c r="F2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" t="s">
-        <v>169</v>
-      </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -3254,19 +3254,19 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
         <v>173</v>
       </c>
-      <c r="F3" t="s">
-        <v>175</v>
-      </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3299,26 +3299,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,7 +3378,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>61</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>61</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -3483,22 +3483,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="b">
         <v>0</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>61</v>
@@ -3552,12 +3552,12 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>61</v>
@@ -3621,10 +3621,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C17" s="3" t="b">
         <v>1</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>61</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="22" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>53</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>53</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="24" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>61</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="25" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>61</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="3" t="b">
         <v>0</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>61</v>
@@ -3824,51 +3824,51 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I37"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
         <v>61</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I39"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I40"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>61</v>
@@ -3922,12 +3922,12 @@
         <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>61</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>61</v>

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BDB246-A48C-4A95-B0F5-9B37A248476C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC5BA98-5131-4BFE-AC27-3CA33F7BD45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="271">
   <si>
     <t>setting_name</t>
   </si>
@@ -841,6 +841,12 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Nascimento</t>
   </si>
 </sst>
 </file>
@@ -1384,11 +1390,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,45 +1501,48 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O7" s="10" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
-        <v>46</v>
+        <v>136</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1541,10 +1550,10 @@
         <v>46</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1552,10 +1561,10 @@
         <v>46</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1563,36 +1572,36 @@
         <v>46</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1600,61 +1609,61 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
         <v>199</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>207</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>208</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" t="s">
-        <v>216</v>
-      </c>
-      <c r="H22" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1662,10 +1671,10 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1673,10 +1682,10 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1684,10 +1693,10 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1695,10 +1704,10 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1706,153 +1715,159 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
         <v>222</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>197</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>53</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>54</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>55</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>68</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>244</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>245</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>250</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>62</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>61</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>63</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>65</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -1862,179 +1877,167 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>61</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>191</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>192</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>53</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>70</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>69</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>134</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H52" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>46</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>77</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>53</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>175</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>177</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>232</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H57" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
         <v>53</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>175</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>178</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G60" t="s">
         <v>233</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H60" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" t="s">
-        <v>240</v>
-      </c>
-      <c r="G61" t="s">
-        <v>236</v>
-      </c>
-      <c r="H61" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="G62" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="H62" t="s">
-        <v>183</v>
-      </c>
-      <c r="O62" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
@@ -2042,209 +2045,226 @@
         <v>61</v>
       </c>
       <c r="F63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>39</v>
+      <c r="D64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" t="s">
+        <v>180</v>
+      </c>
+      <c r="G64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H64" t="s">
+        <v>184</v>
+      </c>
+      <c r="O64" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
         <v>53</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>82</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>83</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>84</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H67" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>57</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>53</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>163</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>172</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>87</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H69" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>53</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>90</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>92</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G74" t="s">
         <v>94</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>57</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
         <v>53</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>105</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>100</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>64</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H76" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>57</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
         <v>53</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>106</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>102</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G79" t="s">
         <v>103</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H79" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>57</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>169</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>170</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>91</v>
       </c>
-      <c r="N81" t="b">
+      <c r="N82" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2258,7 +2278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>

--- a/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
+++ b/app/config/tables/MASKINCL/Forms/MASKINCL/MASKINCL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC5BA98-5131-4BFE-AC27-3CA33F7BD45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F26A5-66C6-480D-99E8-7C64FA668D70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1272,7 +1272,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,9 +1392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,9 +2278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,7 +3300,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,8 +3415,8 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
